--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56077.76028237812</v>
+        <v>53198.8100070557</v>
       </c>
     </row>
     <row r="7">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>192.913951957531</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>162.9033893520715</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>65.23699284296801</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>76.94981712654037</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>62.12273272052514</v>
+        <v>159.6190385214407</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>88.18421182873905</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>149.8794763036715</v>
       </c>
     </row>
     <row r="8">
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.78279939526015</v>
+        <v>150.8130207131232</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.8784752039286</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.39230501855768</v>
+        <v>54.39230501855761</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>272.4018585442062</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3812715448344</v>
       </c>
       <c r="I9" t="n">
-        <v>61.39697089430915</v>
+        <v>61.39697089430912</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.66570489598177</v>
+        <v>49.66570489598173</v>
       </c>
       <c r="S9" t="n">
         <v>156.577620990673</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.15988616950856</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>68.75759104424264</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.07126754654311</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>61.1321015486648</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>48.96782217799512</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365875</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.5067518924962</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986265</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>188.5992901922068</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986265</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>67.33742371513478</v>
+        <v>104.7906844222656</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365891</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,22 +2242,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>203.4068132192029</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>155.8922282799044</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.02146927219732</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.17195463236438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.453989791954</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S28" t="n">
         <v>181.3384883584591</v>
@@ -2767,10 +2767,10 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
-        <v>182.2617818711722</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>161.5087284142437</v>
       </c>
     </row>
     <row r="29">
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.70669256541009</v>
       </c>
       <c r="G31" t="n">
         <v>165.5420528771669</v>
@@ -2968,7 +2968,7 @@
         <v>140.453989791954</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.3384883584591</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3582324997808</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>112.6849016609949</v>
       </c>
     </row>
     <row r="38">
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>20.92847288552895</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>16.09765778288657</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1154.375564375168</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C2" t="n">
-        <v>1154.375564375168</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="D2" t="n">
-        <v>1154.375564375168</v>
+        <v>1182.655397407941</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>796.867144809697</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>385.8812400200895</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>371.9578359586804</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2267.209817970484</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W2" t="n">
-        <v>1914.44116270037</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X2" t="n">
-        <v>1540.97540443929</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y2" t="n">
-        <v>1540.97540443929</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>393.6767897220517</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C4" t="n">
-        <v>393.6767897220517</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D4" t="n">
-        <v>393.6767897220517</v>
+        <v>288.8387344486664</v>
       </c>
       <c r="E4" t="n">
-        <v>393.6767897220517</v>
+        <v>288.8387344486664</v>
       </c>
       <c r="F4" t="n">
-        <v>393.6767897220517</v>
+        <v>288.8387344486664</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>119.8389341869988</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>620.9849770534499</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>620.9849770534499</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>393.6767897220517</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>393.6767897220517</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>393.6767897220517</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>393.6767897220517</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y4" t="n">
-        <v>393.6767897220517</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1426.30362575193</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="C5" t="n">
-        <v>1426.30362575193</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,22 +4568,22 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
@@ -4598,19 +4598,19 @@
         <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>2189.908715988822</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X5" t="n">
-        <v>1816.442957727742</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="Y5" t="n">
-        <v>1426.30362575193</v>
+        <v>1583.378275356799</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>279.346854164887</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C7" t="n">
-        <v>279.346854164887</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>279.346854164887</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>279.346854164887</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>279.346854164887</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>279.346854164887</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084171</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.346854164887</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.899059450185</v>
+        <v>1883.726025633813</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.936542509774</v>
+        <v>1514.763508693402</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6708439030233</v>
+        <v>1156.497810086651</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8825913047791</v>
+        <v>770.709557488407</v>
       </c>
       <c r="F8" t="n">
-        <v>67.8966865151715</v>
+        <v>359.7236526987994</v>
       </c>
       <c r="G8" t="n">
-        <v>53.97466692399963</v>
+        <v>207.3872681400891</v>
       </c>
       <c r="H8" t="n">
-        <v>53.97466692399963</v>
+        <v>207.3872681400891</v>
       </c>
       <c r="I8" t="n">
-        <v>53.97466692399963</v>
+        <v>53.97466692399965</v>
       </c>
       <c r="J8" t="n">
         <v>169.8576899846485</v>
       </c>
       <c r="K8" t="n">
-        <v>464.2811062254482</v>
+        <v>464.2811062254481</v>
       </c>
       <c r="L8" t="n">
         <v>881.8160163137443</v>
@@ -4814,40 +4814,40 @@
         <v>1363.010599624218</v>
       </c>
       <c r="N8" t="n">
-        <v>1837.35941682029</v>
+        <v>1837.359416820291</v>
       </c>
       <c r="O8" t="n">
         <v>2240.085916119061</v>
       </c>
       <c r="P8" t="n">
-        <v>2546.129282956166</v>
+        <v>2546.129282956167</v>
       </c>
       <c r="Q8" t="n">
-        <v>2698.733346199981</v>
+        <v>2698.733346199982</v>
       </c>
       <c r="R8" t="n">
-        <v>2643.791623959014</v>
+        <v>2643.791623959015</v>
       </c>
       <c r="S8" t="n">
-        <v>2643.791623959014</v>
+        <v>2643.791623959015</v>
       </c>
       <c r="T8" t="n">
-        <v>2643.791623959014</v>
+        <v>2643.791623959015</v>
       </c>
       <c r="U8" t="n">
-        <v>2643.791623959014</v>
+        <v>2643.791623959015</v>
       </c>
       <c r="V8" t="n">
-        <v>2643.791623959014</v>
+        <v>2643.791623959015</v>
       </c>
       <c r="W8" t="n">
-        <v>2643.791623959014</v>
+        <v>2643.791623959015</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.638231490119</v>
+        <v>2270.325865697935</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.498899514307</v>
+        <v>2270.325865697935</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4878,31 @@
         <v>115.9918092414836</v>
       </c>
       <c r="I9" t="n">
-        <v>53.97466692399963</v>
+        <v>53.97466692399965</v>
       </c>
       <c r="J9" t="n">
-        <v>129.3004218977354</v>
+        <v>129.3004218977355</v>
       </c>
       <c r="K9" t="n">
-        <v>384.6649779723908</v>
+        <v>384.6649779723909</v>
       </c>
       <c r="L9" t="n">
-        <v>789.4385338451557</v>
+        <v>789.438533845156</v>
       </c>
       <c r="M9" t="n">
         <v>1313.769403253761</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.684763967873</v>
+        <v>1867.684763967874</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.535481497996</v>
+        <v>2307.993424620658</v>
       </c>
       <c r="P9" t="n">
         <v>2524.918932291677</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.084591439862</v>
+        <v>2697.084591439861</v>
       </c>
       <c r="R9" t="n">
         <v>2646.917212757052</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.8305303445458</v>
+        <v>439.2529095157186</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8943474166389</v>
+        <v>270.3167265878117</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7777080043031</v>
+        <v>270.3167265878117</v>
       </c>
       <c r="E10" t="n">
         <v>200.86461442191</v>
       </c>
       <c r="F10" t="n">
-        <v>53.97466692399963</v>
+        <v>53.97466692399965</v>
       </c>
       <c r="G10" t="n">
-        <v>53.97466692399963</v>
+        <v>53.97466692399965</v>
       </c>
       <c r="H10" t="n">
-        <v>53.97466692399963</v>
+        <v>53.97466692399965</v>
       </c>
       <c r="I10" t="n">
-        <v>53.97466692399963</v>
+        <v>53.97466692399965</v>
       </c>
       <c r="J10" t="n">
-        <v>53.97466692399963</v>
+        <v>53.97466692399965</v>
       </c>
       <c r="K10" t="n">
-        <v>110.3475760609652</v>
+        <v>110.3475760609653</v>
       </c>
       <c r="L10" t="n">
-        <v>238.0119258459253</v>
+        <v>238.0119258459255</v>
       </c>
       <c r="M10" t="n">
-        <v>383.0052059260081</v>
+        <v>383.0052059260083</v>
       </c>
       <c r="N10" t="n">
-        <v>529.9854863035554</v>
+        <v>529.9854863035556</v>
       </c>
       <c r="O10" t="n">
-        <v>649.7292691654718</v>
+        <v>649.7292691654721</v>
       </c>
       <c r="P10" t="n">
-        <v>728.6700795526788</v>
+        <v>728.6700795526792</v>
       </c>
       <c r="Q10" t="n">
-        <v>699.3051628389989</v>
+        <v>728.6700795526792</v>
       </c>
       <c r="R10" t="n">
-        <v>699.3051628389989</v>
+        <v>728.6700795526792</v>
       </c>
       <c r="S10" t="n">
-        <v>699.3051628389989</v>
+        <v>728.6700795526792</v>
       </c>
       <c r="T10" t="n">
-        <v>699.3051628389989</v>
+        <v>728.6700795526792</v>
       </c>
       <c r="U10" t="n">
-        <v>699.3051628389989</v>
+        <v>728.6700795526792</v>
       </c>
       <c r="V10" t="n">
-        <v>699.3051628389989</v>
+        <v>728.6700795526792</v>
       </c>
       <c r="W10" t="n">
-        <v>699.3051628389989</v>
+        <v>439.2529095157186</v>
       </c>
       <c r="X10" t="n">
-        <v>699.3051628389989</v>
+        <v>439.2529095157186</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.3051628389989</v>
+        <v>439.2529095157186</v>
       </c>
     </row>
     <row r="11">
@@ -5039,34 +5039,34 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>1770.231306037953</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331037</v>
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5124,34 +5124,34 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1023.336921276364</v>
+        <v>623.0432015923082</v>
       </c>
       <c r="C13" t="n">
-        <v>854.4007383484569</v>
+        <v>623.0432015923082</v>
       </c>
       <c r="D13" t="n">
-        <v>704.2840989361212</v>
+        <v>472.9265621799724</v>
       </c>
       <c r="E13" t="n">
-        <v>556.371005353728</v>
+        <v>325.0134685975793</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5227,22 +5227,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1715.195135287091</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V13" t="n">
-        <v>1715.195135287091</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="W13" t="n">
-        <v>1425.777965250134</v>
+        <v>1253.473796464095</v>
       </c>
       <c r="X13" t="n">
-        <v>1425.777965250134</v>
+        <v>1025.484245566078</v>
       </c>
       <c r="Y13" t="n">
-        <v>1204.985386106604</v>
+        <v>804.6916664225479</v>
       </c>
     </row>
     <row r="14">
@@ -5258,19 +5258,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5279,19 +5279,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2337.214217867998</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>3316.966490094645</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390113</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193582</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320235</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458017</v>
+        <v>559.3002584566048</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.343466104703</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V16" t="n">
-        <v>1956.343466104703</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W16" t="n">
-        <v>1666.926296067742</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X16" t="n">
-        <v>1438.936745169725</v>
+        <v>740.9487232868445</v>
       </c>
       <c r="Y16" t="n">
-        <v>1218.144166026195</v>
+        <v>740.9487232868445</v>
       </c>
     </row>
     <row r="17">
@@ -5513,25 +5513,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O17" t="n">
-        <v>3944.053400686433</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5583,7 +5583,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,13 +5592,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>260.9043113423064</v>
+        <v>982.968910678327</v>
       </c>
       <c r="C19" t="n">
-        <v>260.9043113423064</v>
+        <v>814.0327277504214</v>
       </c>
       <c r="D19" t="n">
-        <v>260.9043113423064</v>
+        <v>663.9160883380856</v>
       </c>
       <c r="E19" t="n">
-        <v>260.9043113423064</v>
+        <v>516.0029947556925</v>
       </c>
       <c r="F19" t="n">
-        <v>260.9043113423064</v>
+        <v>369.1130472577821</v>
       </c>
       <c r="G19" t="n">
-        <v>260.9043113423064</v>
+        <v>201.4102106325011</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5674,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838539</v>
+        <v>1385.409954652097</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858365</v>
+        <v>1385.409954652097</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.9043113423064</v>
+        <v>1164.617375508567</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3944.053400686432</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,52 +5805,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089898</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,16 +5859,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>784.0235789048305</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>784.0235789048305</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>965.6720437350702</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>965.6720437350702</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6066,13 +6066,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6087,7 +6087,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,7 +6096,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
         <v>2043.809373447819</v>
@@ -6105,7 +6105,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>339.1038984121913</v>
+        <v>300.048425655595</v>
       </c>
       <c r="C25" t="n">
-        <v>339.1038984121913</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D25" t="n">
-        <v>339.1038984121913</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E25" t="n">
-        <v>339.1038984121913</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1355.643526557401</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1100.959038351514</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>811.5418683145538</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>583.5523174165364</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>520.752363242431</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D26" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.03297828421</v>
       </c>
       <c r="E26" t="n">
         <v>1205.244725685965</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963571</v>
+        <v>794.2588208963575</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127636</v>
+        <v>380.2757138127638</v>
       </c>
       <c r="H26" t="n">
         <v>93.84834815160777</v>
@@ -6224,16 +6224,16 @@
         <v>93.84834815160706</v>
       </c>
       <c r="J26" t="n">
-        <v>424.1437450015398</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K26" t="n">
-        <v>893.7741287892195</v>
+        <v>842.9746074383984</v>
       </c>
       <c r="L26" t="n">
-        <v>1513.293909294992</v>
+        <v>1462.494387944171</v>
       </c>
       <c r="M26" t="n">
-        <v>2234.298471234026</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N26" t="n">
         <v>2971.58344915113</v>
@@ -6251,25 +6251,25 @@
         <v>4692.417407580353</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U26" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>93.84834815160706</v>
       </c>
       <c r="J27" t="n">
-        <v>93.84834815160706</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K27" t="n">
-        <v>424.3570907149644</v>
+        <v>572.0050724668096</v>
       </c>
       <c r="L27" t="n">
-        <v>915.0894235587139</v>
+        <v>1062.737405310559</v>
       </c>
       <c r="M27" t="n">
-        <v>1507.107777810839</v>
+        <v>1512.132872870359</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.203741210173</v>
+        <v>2134.228836269693</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.812354695767</v>
+        <v>2134.228836269693</v>
       </c>
       <c r="P27" t="n">
         <v>2553.812354695767</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.5769285337228</v>
+        <v>807.4326525856519</v>
       </c>
       <c r="C28" t="n">
-        <v>680.6407456058159</v>
+        <v>638.496469657745</v>
       </c>
       <c r="D28" t="n">
-        <v>530.5241061934802</v>
+        <v>638.496469657745</v>
       </c>
       <c r="E28" t="n">
-        <v>382.6110126110871</v>
+        <v>490.5833760753519</v>
       </c>
       <c r="F28" t="n">
-        <v>235.7210651131767</v>
+        <v>343.6934285774416</v>
       </c>
       <c r="G28" t="n">
-        <v>235.7210651131767</v>
+        <v>176.4792337520204</v>
       </c>
       <c r="H28" t="n">
-        <v>93.84834815160706</v>
+        <v>176.4792337520204</v>
       </c>
       <c r="I28" t="n">
         <v>93.84834815160706</v>
@@ -6406,28 +6406,28 @@
         <v>2429.412499335687</v>
       </c>
       <c r="R28" t="n">
-        <v>2429.412499335687</v>
+        <v>2361.553154294188</v>
       </c>
       <c r="S28" t="n">
-        <v>2246.242309074617</v>
+        <v>2178.382964033118</v>
       </c>
       <c r="T28" t="n">
-        <v>2026.563526788999</v>
+        <v>1958.7041817475</v>
       </c>
       <c r="U28" t="n">
-        <v>1842.460716818118</v>
+        <v>1669.627968062227</v>
       </c>
       <c r="V28" t="n">
-        <v>1587.776228612231</v>
+        <v>1669.627968062227</v>
       </c>
       <c r="W28" t="n">
-        <v>1298.35905857527</v>
+        <v>1380.210798025266</v>
       </c>
       <c r="X28" t="n">
-        <v>1070.369507677253</v>
+        <v>1152.221247127249</v>
       </c>
       <c r="Y28" t="n">
-        <v>849.5769285337228</v>
+        <v>989.0811174158916</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127631</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
         <v>93.84834815160704</v>
@@ -6476,19 +6476,19 @@
         <v>2920.783927800308</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.645964259444</v>
+        <v>3654.445485610264</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.951912946789</v>
+        <v>4202.75143429761</v>
       </c>
       <c r="Q29" t="n">
-        <v>4515.534099052794</v>
+        <v>4566.333620403615</v>
       </c>
       <c r="R29" t="n">
         <v>4692.417407580352</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
@@ -6540,19 +6540,19 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J30" t="n">
-        <v>174.0929316102684</v>
+        <v>98.87344321112664</v>
       </c>
       <c r="K30" t="n">
-        <v>504.6016741736257</v>
+        <v>429.382185774484</v>
       </c>
       <c r="L30" t="n">
-        <v>995.3340070173751</v>
+        <v>920.1145186182334</v>
       </c>
       <c r="M30" t="n">
-        <v>1587.352361269501</v>
+        <v>1512.132872870359</v>
       </c>
       <c r="N30" t="n">
-        <v>1587.352361269501</v>
+        <v>2134.228836269693</v>
       </c>
       <c r="O30" t="n">
         <v>2134.228836269693</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.8714428665047</v>
+        <v>746.1252502501607</v>
       </c>
       <c r="C31" t="n">
-        <v>402.9352599385978</v>
+        <v>577.1890673222538</v>
       </c>
       <c r="D31" t="n">
-        <v>402.9352599385978</v>
+        <v>577.1890673222538</v>
       </c>
       <c r="E31" t="n">
-        <v>402.9352599385978</v>
+        <v>577.1890673222538</v>
       </c>
       <c r="F31" t="n">
-        <v>402.9352599385978</v>
+        <v>485.5661455390112</v>
       </c>
       <c r="G31" t="n">
-        <v>235.7210651131767</v>
+        <v>318.3519507135901</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520204</v>
       </c>
       <c r="I31" t="n">
         <v>93.84834815160704</v>
@@ -6646,25 +6646,25 @@
         <v>2429.412499335687</v>
       </c>
       <c r="S31" t="n">
-        <v>2246.242309074617</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="T31" t="n">
-        <v>2026.563526788999</v>
+        <v>2209.733717050069</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.403695981139</v>
+        <v>1920.657503364796</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.719207775252</v>
+        <v>1665.973015158909</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.302037738292</v>
+        <v>1376.555845121948</v>
       </c>
       <c r="X31" t="n">
-        <v>974.3124868402746</v>
+        <v>1148.566294223931</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.5199076967444</v>
+        <v>927.7737150804004</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6786,16 +6786,16 @@
         <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,19 +7169,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7208,7 +7208,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>114.9565346495163</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>114.9565346495163</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7412,10 +7412,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.55866301478</v>
@@ -7424,10 +7424,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,22 +7488,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>398.6787020904383</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>251.7887545925279</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>251.7887545925279</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>110.076923434726</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,25 +7725,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,7 +8222,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8234,7 +8234,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,10 +8544,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>273.1977302639403</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>197.7981796271467</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>288.0478149561031</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,19 +8927,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>258.6211785616945</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P17" t="n">
-        <v>67.53663776704269</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>67.53663776704383</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>51.31264782911228</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>51.31264782911239</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>51.31264782911182</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>51.31264782911214</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>109.4846820668044</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>109.4846820668023</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986251</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.28894647426645</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>237.2440160276178</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.3252282894411</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>37.11036519683032</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>77.41759119918601</v>
+        <v>39.9643304920552</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>16.14213605696631</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>69.81742710913278</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.2253518264305</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>156.4126987197304</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440925</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.1807515910839</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>103.9236696772482</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>57.07592493785106</v>
       </c>
     </row>
     <row r="29">
@@ -24847,7 +24847,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>54.71435545752115</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440925</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>67.1807515910839</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>8.82721904863962</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>105.8997516910999</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>119.3662399606949</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>65.16817853567896</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1096418.634340169</v>
+        <v>1096418.634340168</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1096418.634340169</v>
+        <v>1096418.634340168</v>
       </c>
     </row>
     <row r="8">
@@ -26314,19 +26314,19 @@
         <v>324930.7156687063</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457131</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.707945713</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="E2" t="n">
         <v>317665.4295095865</v>
       </c>
       <c r="F2" t="n">
-        <v>317665.4295095867</v>
+        <v>317665.4295095864</v>
       </c>
       <c r="G2" t="n">
-        <v>317665.4295095864</v>
+        <v>317665.4295095865</v>
       </c>
       <c r="H2" t="n">
         <v>317665.4295095864</v>
@@ -26335,25 +26335,25 @@
         <v>317665.4295095864</v>
       </c>
       <c r="J2" t="n">
-        <v>322673.1908474237</v>
+        <v>322673.1908474236</v>
       </c>
       <c r="K2" t="n">
-        <v>322673.1908474235</v>
+        <v>322673.1908474236</v>
       </c>
       <c r="L2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="M2" t="n">
         <v>322858.6398760025</v>
       </c>
       <c r="N2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760026</v>
       </c>
       <c r="O2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="P2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760025</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>415.0177423589033</v>
+        <v>415.017742359266</v>
       </c>
       <c r="E3" t="n">
-        <v>726985.2433466798</v>
+        <v>726985.2433466794</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>7103.649503568467</v>
       </c>
       <c r="M3" t="n">
-        <v>129543.614156866</v>
+        <v>129543.6141568659</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196090.28188423</v>
+        <v>196090.2818842302</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>200967.9389534035</v>
+        <v>200967.9389534034</v>
       </c>
       <c r="E4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25090.72367499383</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25090.72367499383</v>
+      </c>
+      <c r="I4" t="n">
         <v>25090.72367499381</v>
       </c>
-      <c r="F4" t="n">
-        <v>25090.72367499384</v>
-      </c>
-      <c r="G4" t="n">
-        <v>25090.72367499382</v>
-      </c>
-      <c r="H4" t="n">
-        <v>25090.72367499382</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25090.7236749938</v>
-      </c>
       <c r="J4" t="n">
-        <v>5781.971894855413</v>
+        <v>5781.971894855415</v>
       </c>
       <c r="K4" t="n">
-        <v>5781.971894855411</v>
+        <v>5781.971894855406</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670443</v>
       </c>
       <c r="M4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670452</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670451</v>
       </c>
       <c r="P4" t="n">
         <v>5067.592601670437</v>
@@ -26473,19 +26473,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82890.59130179136</v>
+        <v>82890.59130179137</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="G5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="G5" t="n">
-        <v>96383.51825371366</v>
-      </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-543986.5234934777</v>
+        <v>-544008.310945209</v>
       </c>
       <c r="C6" t="n">
-        <v>44493.12395457216</v>
+        <v>44493.12395457242</v>
       </c>
       <c r="D6" t="n">
-        <v>44143.15994815929</v>
+        <v>44143.15994815913</v>
       </c>
       <c r="E6" t="n">
-        <v>-530794.0557658008</v>
+        <v>-530861.2512560262</v>
       </c>
       <c r="F6" t="n">
-        <v>196191.1875808793</v>
+        <v>196123.992090653</v>
       </c>
       <c r="G6" t="n">
-        <v>196191.1875808788</v>
+        <v>196123.9920906534</v>
       </c>
       <c r="H6" t="n">
-        <v>196191.1875808789</v>
+        <v>196123.9920906531</v>
       </c>
       <c r="I6" t="n">
-        <v>196191.187580879</v>
+        <v>196123.9920906531</v>
       </c>
       <c r="J6" t="n">
-        <v>-153320.163891629</v>
+        <v>-153356.0608734935</v>
       </c>
       <c r="K6" t="n">
-        <v>215961.1794953296</v>
+        <v>215925.2825134654</v>
       </c>
       <c r="L6" t="n">
-        <v>209564.8679468564</v>
+        <v>209530.1300214208</v>
       </c>
       <c r="M6" t="n">
-        <v>87124.90329355896</v>
+        <v>87090.16536812333</v>
       </c>
       <c r="N6" t="n">
-        <v>216668.5174504248</v>
+        <v>216633.7795249891</v>
       </c>
       <c r="O6" t="n">
-        <v>216668.5174504248</v>
+        <v>216633.7795249892</v>
       </c>
       <c r="P6" t="n">
-        <v>216668.5174504248</v>
+        <v>216633.7795249891</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>378.0846073188826</v>
+        <v>378.0846073188829</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.6833365499954</v>
+        <v>674.6833365499956</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.340943101795915</v>
+        <v>0.3409431017962561</v>
       </c>
       <c r="E3" t="n">
-        <v>711.6920932744157</v>
+        <v>711.6920932744154</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26993,13 +26993,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3960637954397725</v>
+        <v>0.3960637954399999</v>
       </c>
       <c r="E4" t="n">
-        <v>519.8295940549349</v>
+        <v>519.8295940549347</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.8295940549349</v>
+        <v>519.8295940549347</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3960637954397725</v>
+        <v>0.3960637954399999</v>
       </c>
       <c r="M4" t="n">
-        <v>519.8295940549349</v>
+        <v>519.8295940549347</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>79.53173604792646</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>51.53470134548338</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>90.93389599882714</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>69.71537485361746</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27619,10 +27619,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>292.5603089001578</v>
+        <v>195.0640030992423</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>67.9866770130561</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>68.70517704842334</v>
       </c>
     </row>
     <row r="8">
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>262.969778682137</v>
       </c>
       <c r="H8" t="n">
         <v>323.9087358455983</v>
       </c>
       <c r="I8" t="n">
-        <v>151.8784752039286</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>97.32924213426281</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.6720940124287</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>77.67637160232653</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>134.9471326156048</v>
       </c>
       <c r="J10" t="n">
-        <v>45.1564917376736</v>
+        <v>45.15649173767357</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.07126754654307</v>
       </c>
       <c r="R10" t="n">
         <v>146.6375476427565</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28138,10 +28138,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-3.774407299222456e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.358561997638116e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2.733694752047692e-12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>3.534950110406498e-12</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -28782,7 +28782,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.519938119874904</v>
+        <v>1.519938119874905</v>
       </c>
       <c r="H8" t="n">
-        <v>15.56606627016886</v>
+        <v>15.56606627016887</v>
       </c>
       <c r="I8" t="n">
-        <v>58.59741436647729</v>
+        <v>58.59741436647733</v>
       </c>
       <c r="J8" t="n">
-        <v>129.0028480017327</v>
+        <v>129.0028480017328</v>
       </c>
       <c r="K8" t="n">
-        <v>193.3418286160374</v>
+        <v>193.3418286160376</v>
       </c>
       <c r="L8" t="n">
-        <v>239.8576348521591</v>
+        <v>239.8576348521593</v>
       </c>
       <c r="M8" t="n">
-        <v>266.8878343914844</v>
+        <v>266.8878343914846</v>
       </c>
       <c r="N8" t="n">
-        <v>271.206358574579</v>
+        <v>271.2063585745792</v>
       </c>
       <c r="O8" t="n">
-        <v>256.0924738950729</v>
+        <v>256.0924738950731</v>
       </c>
       <c r="P8" t="n">
-        <v>218.5690015606612</v>
+        <v>218.5690015606613</v>
       </c>
       <c r="Q8" t="n">
-        <v>164.1362176426411</v>
+        <v>164.1362176426412</v>
       </c>
       <c r="R8" t="n">
-        <v>95.476812922592</v>
+        <v>95.47681292259207</v>
       </c>
       <c r="S8" t="n">
-        <v>34.63558990664941</v>
+        <v>34.63558990664943</v>
       </c>
       <c r="T8" t="n">
-        <v>6.653529119752394</v>
+        <v>6.6535291197524</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1215950495899923</v>
+        <v>0.1215950495899924</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8132385893274079</v>
+        <v>0.8132385893274086</v>
       </c>
       <c r="H9" t="n">
-        <v>7.854172691662072</v>
+        <v>7.854172691662078</v>
       </c>
       <c r="I9" t="n">
-        <v>27.99966195710593</v>
+        <v>27.99966195710595</v>
       </c>
       <c r="J9" t="n">
-        <v>76.83321251184954</v>
+        <v>76.8332125118496</v>
       </c>
       <c r="K9" t="n">
-        <v>131.3201979967859</v>
+        <v>131.320197996786</v>
       </c>
       <c r="L9" t="n">
-        <v>176.5762121256725</v>
+        <v>176.5762121256726</v>
       </c>
       <c r="M9" t="n">
-        <v>206.056110988791</v>
+        <v>206.0561109887911</v>
       </c>
       <c r="N9" t="n">
-        <v>211.50980310757</v>
+        <v>211.5098031075702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.4901480493153</v>
+        <v>193.4901480493155</v>
       </c>
       <c r="P9" t="n">
-        <v>155.2929022023539</v>
+        <v>155.292902202354</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.80919256046</v>
+        <v>103.8091925604601</v>
       </c>
       <c r="R9" t="n">
-        <v>50.49212925666136</v>
+        <v>50.4921292566614</v>
       </c>
       <c r="S9" t="n">
-        <v>15.10555011316478</v>
+        <v>15.10555011316479</v>
       </c>
       <c r="T9" t="n">
-        <v>3.277922208736349</v>
+        <v>3.277922208736352</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05350253877154001</v>
+        <v>0.05350253877154006</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6817919148373291</v>
+        <v>0.6817919148373297</v>
       </c>
       <c r="H10" t="n">
-        <v>6.061749933735531</v>
+        <v>6.061749933735536</v>
       </c>
       <c r="I10" t="n">
-        <v>20.50334231165351</v>
+        <v>20.50334231165352</v>
       </c>
       <c r="J10" t="n">
-        <v>48.20268837899917</v>
+        <v>48.20268837899921</v>
       </c>
       <c r="K10" t="n">
-        <v>79.21182428746422</v>
+        <v>79.2118242874643</v>
       </c>
       <c r="L10" t="n">
         <v>101.3638634113608</v>
       </c>
       <c r="M10" t="n">
-        <v>106.8739817049097</v>
+        <v>106.8739817049098</v>
       </c>
       <c r="N10" t="n">
         <v>104.3327572950616</v>
       </c>
       <c r="O10" t="n">
-        <v>96.36818810809817</v>
+        <v>96.36818810809824</v>
       </c>
       <c r="P10" t="n">
-        <v>82.45963304541658</v>
+        <v>82.45963304541665</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.09077570515127</v>
+        <v>57.09077570515132</v>
       </c>
       <c r="R10" t="n">
-        <v>30.65584373441299</v>
+        <v>30.65584373441302</v>
       </c>
       <c r="S10" t="n">
-        <v>11.88177364311963</v>
+        <v>11.88177364311964</v>
       </c>
       <c r="T10" t="n">
-        <v>2.913110908850406</v>
+        <v>2.913110908850408</v>
       </c>
       <c r="U10" t="n">
-        <v>0.037188649900218</v>
+        <v>0.03718864990021803</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32795,7 +32795,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K27" t="n">
         <v>471.688653684821</v>
@@ -33032,16 +33032,16 @@
         <v>634.2436048745706</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504278</v>
+        <v>596.0688496389878</v>
       </c>
       <c r="N27" t="n">
         <v>759.7214730927615</v>
       </c>
       <c r="O27" t="n">
-        <v>571.4938338238319</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>207.8927614733953</v>
+        <v>131.913480262141</v>
       </c>
       <c r="K30" t="n">
         <v>471.688653684821</v>
@@ -33272,10 +33272,10 @@
         <v>740.1323715504278</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426184</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>557.7961431982436</v>
@@ -33506,7 +33506,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,10 +33515,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,28 +33734,28 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172136</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,10 +34208,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -34954,7 +34954,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.0535586471202</v>
+        <v>117.0535586471203</v>
       </c>
       <c r="K8" t="n">
-        <v>297.3973901422216</v>
+        <v>297.3973901422218</v>
       </c>
       <c r="L8" t="n">
-        <v>421.7524344326223</v>
+        <v>421.7524344326225</v>
       </c>
       <c r="M8" t="n">
-        <v>486.0551346570442</v>
+        <v>486.0551346570444</v>
       </c>
       <c r="N8" t="n">
-        <v>479.1402193899722</v>
+        <v>479.1402193899725</v>
       </c>
       <c r="O8" t="n">
-        <v>406.7944437361315</v>
+        <v>406.7944437361317</v>
       </c>
       <c r="P8" t="n">
-        <v>309.1347139768743</v>
+        <v>309.1347139768744</v>
       </c>
       <c r="Q8" t="n">
-        <v>154.1455184280963</v>
+        <v>154.1455184280964</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.08662118559168</v>
+        <v>76.08662118559174</v>
       </c>
       <c r="K9" t="n">
-        <v>257.9439960350055</v>
+        <v>257.9439960350056</v>
       </c>
       <c r="L9" t="n">
-        <v>408.8621776492575</v>
+        <v>408.8621776492577</v>
       </c>
       <c r="M9" t="n">
-        <v>529.6271408167726</v>
+        <v>529.6271408167727</v>
       </c>
       <c r="N9" t="n">
-        <v>559.5104653677902</v>
+        <v>559.5104653677904</v>
       </c>
       <c r="O9" t="n">
-        <v>324.0916338688112</v>
+        <v>444.7562228816006</v>
       </c>
       <c r="P9" t="n">
-        <v>339.7812634279608</v>
+        <v>219.1166744151705</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.9047062102876</v>
+        <v>173.9047062102877</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.94233246158137</v>
+        <v>56.94233246158144</v>
       </c>
       <c r="L10" t="n">
-        <v>128.9538886716769</v>
+        <v>128.953888671677</v>
       </c>
       <c r="M10" t="n">
-        <v>146.4578586667503</v>
+        <v>146.4578586667504</v>
       </c>
       <c r="N10" t="n">
-        <v>148.4649296742901</v>
+        <v>148.4649296742902</v>
       </c>
       <c r="O10" t="n">
-        <v>120.9533160221378</v>
+        <v>120.9533160221379</v>
       </c>
       <c r="P10" t="n">
-        <v>79.73819231031007</v>
+        <v>79.73819231031014</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>840.3496503690146</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>766.6741794499135</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P17" t="n">
-        <v>466.2986239864146</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>466.2986239864155</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,7 +36443,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
@@ -36592,7 +36592,7 @@
         <v>-6.536993168992922e-13</v>
       </c>
       <c r="J26" t="n">
-        <v>333.631713989831</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K26" t="n">
         <v>474.3741250380603</v>
@@ -36604,7 +36604,7 @@
         <v>728.2874363020552</v>
       </c>
       <c r="N26" t="n">
-        <v>744.7323009263669</v>
+        <v>796.0449487554793</v>
       </c>
       <c r="O26" t="n">
         <v>689.7596327870057</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K27" t="n">
         <v>333.847214710462</v>
@@ -36680,16 +36680,16 @@
         <v>495.6892250946964</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284094</v>
+        <v>453.9348157169694</v>
       </c>
       <c r="N27" t="n">
         <v>628.3797610094282</v>
       </c>
       <c r="O27" t="n">
-        <v>428.8975893793875</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>744.7323009263669</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870057</v>
+        <v>741.0722806161175</v>
       </c>
       <c r="P29" t="n">
         <v>553.8443926134805</v>
@@ -36853,7 +36853,7 @@
         <v>367.2547334404093</v>
       </c>
       <c r="R29" t="n">
-        <v>178.6700086136952</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>81.0551348067286</v>
+        <v>5.075853595474344</v>
       </c>
       <c r="K30" t="n">
         <v>333.847214710462</v>
@@ -36920,10 +36920,10 @@
         <v>597.9983376284094</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981739</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>423.8217357839134</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37154,7 +37154,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,10 +37163,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373395</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
